--- a/Data/Excel/Proto/WorldStage.xlsx
+++ b/Data/Excel/Proto/WorldStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFDCE13-F32A-4A4B-8A97-40B4A529984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FA388E-9D13-426B-A56D-C7133E14F8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="825" yWindow="2550" windowWidth="22980" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>별 3개 보상</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:mk</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1115,13 +1119,13 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="F1:R19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
@@ -1200,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
